--- a/xls/libro.xlsx
+++ b/xls/libro.xlsx
@@ -414,12 +414,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10102001</t>
+          <t>10102001.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -448,7 +448,11 @@
           <t>1234</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>pago</t>
@@ -475,7 +479,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16052020</t>
+          <t>16052020.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -506,7 +510,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13091970</t>
+          <t>13091970.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -537,7 +541,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18052020</t>
+          <t>18052020.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -556,17 +560,19 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>123</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13091970</t>
+          <t>13092020</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -575,10 +581,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xls/libro.xlsx
+++ b/xls/libro.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13092020</t>
+          <t>13092020.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
